--- a/doc/服务接口设计文档0524.xlsx
+++ b/doc/服务接口设计文档0524.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上传用户头像#" sheetId="33" r:id="rId1"/>
     <sheet name="用户注册#" sheetId="3" r:id="rId2"/>
-    <sheet name="用户登陆#" sheetId="4" r:id="rId3"/>
-    <sheet name="获取用户资料#" sheetId="31" r:id="rId4"/>
-    <sheet name="更新用户资料#" sheetId="32" r:id="rId5"/>
+    <sheet name="更新用户资料#" sheetId="32" r:id="rId3"/>
+    <sheet name="用户登陆#" sheetId="4" r:id="rId4"/>
+    <sheet name="获取用户资料#" sheetId="31" r:id="rId5"/>
     <sheet name="获取活动列表（分页）#" sheetId="6" r:id="rId6"/>
     <sheet name="获取学科列表（分页）#" sheetId="5" r:id="rId7"/>
     <sheet name="新增、删除用户收藏学科#" sheetId="7" r:id="rId8"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="208">
   <si>
     <t>Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,475 @@
   </si>
   <si>
     <t>活动对象的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填：不限制Aid 则为0，不限制Sid则为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填：不限制Aid 则为0，不限制Sid则为0 不限制Pid为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/paper/getPaper.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">key=Qid 题目ID
+key=detail 答案   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimePassed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照原先客户端提交的传回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 获取成功
+200 没有该用户做该试卷的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_lastchange_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/question/getQuestionDetail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/exam/saveProcess.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/exam/getProcess.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/exam/submitPaper.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeUsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/questionList/add2MarkList.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取获取收藏夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/questionList/delFromMarkList.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入错题集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取收藏夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/questionList/getMarkList.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/questionList/add2WrongList.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/questionList/getWrongList.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移出错题集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/questionList/delFromWrongList.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者其他的格式，客户端传的是什么服务端就怎么处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History对象的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_lastchange_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/exam/getHistory.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 单选
+2 多选
+3. 判断题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用urlDeCode解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:注册成功
+101：邮箱/手机号一已经注册过
+200：其他错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:登陆成功
+101：密码错误
+102：邮箱/手机未注册
+200：其他错误。登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 提交成功
+200 提交失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 保存成功
+200 保存失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 保存成功
+100 保存失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 收藏成功
+200 收藏失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 取消成功
+200 取消失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 加入成功
+200 加入错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desciption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 需要urldeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper.ID 试卷ID
+Paper.Name 试卷名称
+Description 描述
+Paper.Time试卷用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sname 和 Description 都需要urldeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aname 和 Description 都需要urldeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 题目ID
+ReMark收藏理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name 和 Description都需要urldeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReMark需要urldeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:邮箱
+2：手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1： 第一页
+N:   第N页
+其他值或者NULL 默认传第一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaperList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/user/getDetail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/user/updateDetail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均为非必填，若不填或为空则不更新该项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100设置成功
+200其他失败
+201找不到该用户
+202没有修改用户资料的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/user/updatePic.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100设置成功
+200其他失败
+201找不到该用户
+202没有修改用户资料的权限
+203文件图片上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID  学科ID
+Sname 学科名称
+Description 描述
+PicUrl 学科封面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID  分区ID
+Aname 分区名称
+Description 描述
+PicUrl 活动封面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答对的题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增删除用户收藏学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operartion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 增加
+2 删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/sub/getSub.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/user/userSetSubs.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必填
+填写时为获取用户收藏的学科列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 操作成功
+101 没有这个学科ID、没有这个Uid、之前已经收藏过了
+200 其他错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：/service/question/getQuestion.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Content = 选项内容 Right = 是否正确，其中Content需要用urldeCode解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,472 +904,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必填：不限制Aid 则为0，不限制Sid则为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填：不限制Aid 则为0，不限制Sid则为0 不限制Pid为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/paper/getPaper.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">key=Qid 题目ID
-key=detail 答案   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimePassed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照原先客户端提交的传回去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 获取成功
-200 没有该用户做该试卷的记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_lastchange_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/question/getQuestionDetail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/exam/saveProcess.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/exam/getProcess.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/exam/submitPaper.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeUsed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/questionList/add2MarkList.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取获取收藏夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/questionList/delFromMarkList.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入错题集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取收藏夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/questionList/getMarkList.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/questionList/add2WrongList.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/questionList/getWrongList.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移出错题集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/questionList/delFromWrongList.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交试卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或者其他的格式，客户端传的是什么服务端就怎么处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HistoryList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History对象的数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishedCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_lastchange_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/exam/getHistory.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 单选
-2 多选
-3. 判断题
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要用urlDeCode解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100:注册成功
-101：邮箱/手机号一已经注册过
-200：其他错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100:登陆成功
-101：密码错误
-102：邮箱/手机未注册
-200：其他错误。登陆失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 提交成功
-200 提交失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 保存成功
-200 保存失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 保存成功
-100 保存失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 收藏成功
-200 收藏失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 取消成功
-200 取消失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 加入成功
-200 加入错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desciption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAHR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 需要urldeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper.ID 试卷ID
-Paper.Name 试卷名称
-Description 描述
-Paper.Time试卷用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sname 和 Description 都需要urldeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aname 和 Description 都需要urldeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 题目ID
-ReMark收藏理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name 和 Description都需要urldeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReMark需要urldeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:邮箱
-2：手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1： 第一页
-N:   第N页
-其他值或者NULL 默认传第一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaperList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/user/getDetail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhoneNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/user/updateDetail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均为非必填，若不填或为空则不更新该项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100设置成功
-200其他失败
-201找不到该用户
-202没有修改用户资料的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新用户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RespCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新用户头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/user/updatePic.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100设置成功
-200其他失败
-201找不到该用户
-202没有修改用户资料的权限
-203文件图片上传失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID  学科ID
-Sname 学科名称
-Description 描述
-PicUrl 学科封面地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID  分区ID
-Aname 分区名称
-Description 描述
-PicUrl 活动封面地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答对的题数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增删除用户收藏学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operartion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 增加
-2 删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/sub/getSub.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/user/userSetSubs.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必填
-填写时为获取用户收藏的学科列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 操作成功
-101 没有这个学科ID、没有这个Uid、之前已经收藏过了
-200 其他错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口：/service/question/getQuestion.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Content = 选项内容 Right = 是否正确，其中Content需要用urldeCode解析</t>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +920,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +991,46 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1060,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1099,7 +1151,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1131,6 +1182,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1148,15 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1176,6 +1227,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1470,28 +1542,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1509,7 +1581,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
@@ -1519,21 +1591,21 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1551,13 +1623,13 @@
     </row>
     <row r="9" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1591,28 +1663,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1638,8 +1710,8 @@
       <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>99</v>
+      <c r="D5" s="33" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1652,7 +1724,7 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1664,27 +1736,27 @@
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1702,77 +1774,77 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>204</v>
+      <c r="D15" s="29" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1806,28 +1878,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1856,12 +1928,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1879,7 +1951,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>34</v>
@@ -1895,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>53</v>
@@ -1903,16 +1975,16 @@
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1923,37 +1995,37 @@
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -1963,7 +2035,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>60</v>
@@ -2002,28 +2074,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2086,12 +2158,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2115,7 +2187,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -2147,28 +2219,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2211,18 +2283,18 @@
         <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -2233,12 +2305,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2262,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -2293,28 +2365,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2353,12 +2425,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2376,13 +2448,13 @@
     </row>
     <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -2391,13 +2463,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2414,7 +2486,7 @@
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>83</v>
@@ -2452,28 +2524,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2536,20 +2608,20 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
@@ -2560,12 +2632,12 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2589,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -2622,28 +2694,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2670,12 +2742,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2692,52 +2764,52 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>129</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="14" t="s">
         <v>90</v>
       </c>
@@ -2746,13 +2818,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2783,28 +2855,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2857,12 +2929,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2886,7 +2958,7 @@
         <v>65</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -2917,28 +2989,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2977,12 +3049,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3006,7 +3078,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -3037,28 +3109,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3085,12 +3157,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3108,16 +3180,16 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3136,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3147,28 +3219,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3192,7 +3264,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
@@ -3241,12 +3313,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3270,13 +3342,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -3315,28 +3387,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3375,12 +3447,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3404,7 +3476,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -3435,28 +3507,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3495,12 +3567,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3524,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -3555,28 +3627,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3603,12 +3675,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3626,13 +3698,13 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -3653,6 +3725,165 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C6:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3664,28 +3895,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3758,12 +3989,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3787,13 +4018,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -3818,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -3834,28 +4065,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3873,7 +4104,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
@@ -3882,12 +4113,12 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3905,7 +4136,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3913,7 +4144,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3921,7 +4152,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3929,17 +4160,17 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3947,10 +4178,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3979,151 +4210,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4147,28 +4233,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4186,23 +4272,23 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -4226,10 +4312,10 @@
         <v>96</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>154</v>
+        <v>185</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4254,121 +4340,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="43"/>
+    <col min="2" max="2" width="13.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="43" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="43" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6" t="s">
-        <v>201</v>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>97</v>
+      <c r="D6" s="50" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>153</v>
+      <c r="C10" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4399,28 +4487,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4445,44 +4533,44 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4500,13 +4588,13 @@
     </row>
     <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -4538,28 +4626,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4583,10 +4671,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,28 +4687,28 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="26"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4638,16 +4726,16 @@
     </row>
     <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/doc/服务接口设计文档0524.xlsx
+++ b/doc/服务接口设计文档0524.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="上传用户头像#" sheetId="33" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="207">
   <si>
     <t>Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,30 +709,6 @@
   </si>
   <si>
     <t>Uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhoneNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -913,6 +889,26 @@
   </si>
   <si>
     <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,6 +1160,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,6 +1183,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1227,27 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1542,28 +1538,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1591,21 +1587,21 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1623,13 +1619,13 @@
     </row>
     <row r="9" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1663,28 +1659,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1710,7 +1706,7 @@
       <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="44" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1724,7 +1720,7 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1736,7 +1732,7 @@
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1751,12 +1747,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1774,10 +1770,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1786,8 +1782,8 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
@@ -1796,8 +1792,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="5" t="s">
         <v>146</v>
       </c>
@@ -1806,8 +1802,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
         <v>54</v>
       </c>
@@ -1816,30 +1812,30 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>203</v>
+      <c r="D15" s="40" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="20" t="s">
         <v>59</v>
       </c>
@@ -1878,28 +1874,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1928,12 +1924,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2002,30 +1998,30 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -2074,28 +2070,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2158,12 +2154,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2219,28 +2215,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2305,12 +2301,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2365,28 +2361,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2425,12 +2421,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2524,28 +2520,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2609,14 +2605,14 @@
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2632,12 +2628,12 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2694,28 +2690,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2742,12 +2738,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2764,10 +2760,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="50" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2778,8 +2774,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="14" t="s">
         <v>132</v>
       </c>
@@ -2788,8 +2784,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -2798,8 +2794,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="14" t="s">
         <v>129</v>
       </c>
@@ -2808,8 +2804,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="14" t="s">
         <v>90</v>
       </c>
@@ -2818,8 +2814,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="11" t="s">
         <v>133</v>
       </c>
@@ -2855,28 +2851,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2929,12 +2925,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2989,28 +2985,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3049,12 +3045,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3109,28 +3105,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3157,12 +3153,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3208,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3219,28 +3215,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3313,12 +3309,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3387,28 +3383,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3447,12 +3443,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3507,28 +3503,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3567,12 +3563,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3627,28 +3623,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3675,12 +3671,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3736,28 +3732,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3775,7 +3771,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
@@ -3785,13 +3781,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>168</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -3802,7 +3798,7 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
@@ -3814,7 +3810,7 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
@@ -3826,18 +3822,18 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3858,10 +3854,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -3895,28 +3891,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3989,12 +3985,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -4053,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4065,28 +4061,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4113,12 +4109,12 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4136,7 +4132,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4144,7 +4140,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4152,7 +4148,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4160,7 +4156,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>102</v>
@@ -4170,7 +4166,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4178,10 +4174,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4233,28 +4229,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4283,12 +4279,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -4312,7 +4308,7 @@
         <v>96</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>153</v>
@@ -4340,122 +4336,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="43"/>
-    <col min="2" max="2" width="13.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="43" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="43" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="13.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
-        <v>200</v>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>204</v>
+      <c r="D6" s="26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4487,28 +4483,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4533,44 +4529,44 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4588,13 +4584,13 @@
     </row>
     <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -4626,28 +4622,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4673,7 +4669,7 @@
       <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="36" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4687,7 +4683,7 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="37"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -4703,12 +4699,12 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
